--- a/biology/Botanique/Catasetinae/Catasetinae.xlsx
+++ b/biology/Botanique/Catasetinae/Catasetinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-tribu des Catasetinae est une sous-tribu d'orchidées de la sous-famille des Epidendroideae et de la tribu des Cymbidieae. Elle comprend 7 genres et environ 300 espèces, principalement épiphytes originaires d'Amérique Centrale et d'Amérique du Sud
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Catasetum (80 à 120 espèces)
 Clowesia (7 espèces)
@@ -547,7 +561,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont pollinisées uniquement pas les abeilles de la tribu des Euglossini.
 </t>
